--- a/data-raw/unhcr_2026/iati_location.xlsx
+++ b/data-raw/unhcr_2026/iati_location.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,45 +390,50 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>location_type</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>location_activity_descr</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>location_adm_vocabulary</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>location_adm_level</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>location_adm_code</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>location_lat</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>location_long</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>location_exactness_code</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>location_class_code</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>location_feature_designation_code</t>
         </is>
@@ -455,22 +460,27 @@
           <t>Dundo</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>UNHCR Field Office</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>-7.35</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>20.8217</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -497,22 +507,27 @@
           <t>Luanda</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>UNHCR Country Office</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>-8.8299</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>13.233</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -539,22 +554,27 @@
           <t>Luanda</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>UNHCR Country Office</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>-8.8299</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>13.233</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -581,22 +601,27 @@
           <t>Luanda</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>UNHCR Country Office</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>-8.8299</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>13.233</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -623,22 +648,27 @@
           <t>Maputo</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>UNHCR Country Office</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>-25.961</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>32.574</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -665,22 +695,27 @@
           <t>Maputo</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>UNHCR Country Office</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>-25.961</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>32.574</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -707,22 +742,27 @@
           <t>Maputo</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>UNHCR Country Office</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>-25.961</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>32.574</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -749,22 +789,27 @@
           <t>Nampula</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>UNHCR Field Office</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>-15.1154</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>39.2569</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -791,22 +836,27 @@
           <t>Harare</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>UNHCR Country Office</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>-17.828</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>31.054</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -833,22 +883,27 @@
           <t>Harare</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>UNHCR Country Office</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>-17.828</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>31.054</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -875,22 +930,27 @@
           <t>Harare</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>UNHCR Country Office</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>-17.828</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>31.054</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -917,22 +977,27 @@
           <t>Kaoma</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>UNHCR Field Office</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>-14.7877</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>24.7986</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -959,22 +1024,27 @@
           <t>Kawambwa</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>UNHCR Field Office</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>-9.781</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>29.083</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="N14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1001,22 +1071,27 @@
           <t>Lilongwe</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>UNHCR Country Office</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>-13.981</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>33.774</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1043,22 +1118,27 @@
           <t>Lilongwe</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>UNHCR Country Office</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>-13.981</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>33.774</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="N16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1085,22 +1165,27 @@
           <t>Lilongwe</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>UNHCR Country Office</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>-13.981</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>33.774</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="N17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1127,22 +1212,27 @@
           <t>Lusaka</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>UNHCR Country Office</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>-15.417</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>28.288</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="N18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1169,22 +1259,27 @@
           <t>Lusaka</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>UNHCR Country Office</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>-15.417</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>28.288</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1211,22 +1306,27 @@
           <t>Lusaka</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>UNHCR Country Office</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>-15.417</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>28.288</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1253,22 +1353,27 @@
           <t>Mwanza</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>UNHCR Field Unit</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>-15.6</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>34.5146</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1295,22 +1400,27 @@
           <t>Nchelenge</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>UNHCR Field Unit</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>-9.3479</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>28.7344</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1337,22 +1447,27 @@
           <t>Solwezi</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>UNHCR Field Office</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>-12.1804</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>26.4006</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="N23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1379,22 +1494,27 @@
           <t>Tongogara</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>UNHCR Field Office</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>-20.2619</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>32.3574</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1421,22 +1541,27 @@
           <t>Praha</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>UNHCR Liaison Office</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>50.0783</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>14.4048</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="N25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1463,22 +1588,27 @@
           <t>Warsaw</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>UNHCR Liaison Office</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>52.255</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>21.002</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="N26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1505,22 +1635,27 @@
           <t>Minsk</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>UNHCR Country Office</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>53.902</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>27.557</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="N27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1547,22 +1682,27 @@
           <t>Moscow</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>UNHCR Country Office</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>55.7565</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>37.6446</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="N28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
         <is>
           <t>3</t>
         </is>
